--- a/Reports/Darrian/VehiclePartReport.xlsx
+++ b/Reports/Darrian/VehiclePartReport.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\Reports\Darrian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1129AABB-CB46-4A20-A208-4CF0299079BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE92B30-AAFA-4DF1-BD0F-9308865A6B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20010" yWindow="2280" windowWidth="17580" windowHeight="11835" activeTab="1" xr2:uid="{F64DA722-9DBF-4C3A-8102-95F0DA4AC9AD}"/>
+    <workbookView xWindow="-18225" yWindow="1245" windowWidth="17580" windowHeight="11835" activeTab="2" xr2:uid="{F64DA722-9DBF-4C3A-8102-95F0DA4AC9AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="VehiclePart" sheetId="1" r:id="rId1"/>
+    <sheet name="EmployeePart" sheetId="2" r:id="rId2"/>
+    <sheet name="Revenue" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="340">
   <si>
     <t>VIN</t>
   </si>
@@ -42,12 +44,6 @@
     <t>19XFA1F5XBE087240</t>
   </si>
   <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
-    <t>Taho</t>
-  </si>
-  <si>
     <t>Hendrickson</t>
   </si>
   <si>
@@ -57,9 +53,6 @@
     <t>19XFB2F55DE061070</t>
   </si>
   <si>
-    <t>Imlapa</t>
-  </si>
-  <si>
     <t>Fleetrite</t>
   </si>
   <si>
@@ -69,21 +62,12 @@
     <t>1B3AL56R72N189204</t>
   </si>
   <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Civic</t>
-  </si>
-  <si>
     <t>1C3EL46X65N505015</t>
   </si>
   <si>
     <t>Ford</t>
   </si>
   <si>
-    <t>Focus</t>
-  </si>
-  <si>
     <t>Fruitland Manufacturing</t>
   </si>
   <si>
@@ -93,9 +77,6 @@
     <t>1C6RR6GT9ES365442</t>
   </si>
   <si>
-    <t>Tacuma</t>
-  </si>
-  <si>
     <t>Airman Products</t>
   </si>
   <si>
@@ -105,9 +86,6 @@
     <t>1D7HE22K26S555758</t>
   </si>
   <si>
-    <t>Camaro</t>
-  </si>
-  <si>
     <t>HIAB</t>
   </si>
   <si>
@@ -117,18 +95,9 @@
     <t>1D7HU18298S536471</t>
   </si>
   <si>
-    <t>Jeep</t>
-  </si>
-  <si>
-    <t>Cherokee</t>
-  </si>
-  <si>
     <t>1D7RB1GPXAS185874</t>
   </si>
   <si>
-    <t>Escort</t>
-  </si>
-  <si>
     <t>Link Manufacturing, Ltd</t>
   </si>
   <si>
@@ -141,9 +110,6 @@
     <t>1FMFU20576LA76257</t>
   </si>
   <si>
-    <t>Wrangler</t>
-  </si>
-  <si>
     <t>Ridewell Suspensions</t>
   </si>
   <si>
@@ -153,9 +119,6 @@
     <t>1FMJU1J57BEF16835</t>
   </si>
   <si>
-    <t>Mustang</t>
-  </si>
-  <si>
     <t>Dayton Parts, LLC</t>
   </si>
   <si>
@@ -165,9 +128,6 @@
     <t>1FTFW1EF5DFA79986</t>
   </si>
   <si>
-    <t>Expedition</t>
-  </si>
-  <si>
     <t>Buyers Products Company</t>
   </si>
   <si>
@@ -177,21 +137,12 @@
     <t>1FTMF1EF8DKG22066</t>
   </si>
   <si>
-    <t>Mazda</t>
-  </si>
-  <si>
-    <t>B4000</t>
-  </si>
-  <si>
     <t>1FTWW31P05ED12447</t>
   </si>
   <si>
     <t>1G11B5SL4FF178012</t>
   </si>
   <si>
-    <t>Accord</t>
-  </si>
-  <si>
     <t>1G1AS18H097240712</t>
   </si>
   <si>
@@ -207,9 +158,6 @@
     <t>1G4HP54K014129658</t>
   </si>
   <si>
-    <t>Explorer</t>
-  </si>
-  <si>
     <t>1G8ZS57N87F203073</t>
   </si>
   <si>
@@ -306,12 +254,6 @@
     <t>1VWAP7A38DC019544</t>
   </si>
   <si>
-    <t>Arctic Cat</t>
-  </si>
-  <si>
-    <t>DVX 90</t>
-  </si>
-  <si>
     <t>1VWBH7A34CC000747</t>
   </si>
   <si>
@@ -351,12 +293,6 @@
     <t>3GTU2VEC3EG428370</t>
   </si>
   <si>
-    <t>CAN-AM</t>
-  </si>
-  <si>
-    <t>DS 90 X</t>
-  </si>
-  <si>
     <t>3MZBM1L73FM114959</t>
   </si>
   <si>
@@ -477,6 +413,9 @@
     <t>WAUEFGFF4F1066642</t>
   </si>
   <si>
+    <t>WDBWK73F09F143987</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
@@ -522,18 +461,9 @@
     <t>Ignacio</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Blanca</t>
-  </si>
-  <si>
     <t>Medina</t>
   </si>
   <si>
@@ -610,13 +540,539 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Revenue Name</t>
+  </si>
+  <si>
+    <t>Revenue Value</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Cowgirl</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Melesio</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Nieto</t>
+  </si>
+  <si>
+    <t>Jaimes</t>
+  </si>
+  <si>
+    <t>County Land</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Jachon</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Stair</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>V Trucking</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>Stroup</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Ramirez Saldana</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Truck of Houston</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Trucking</t>
+  </si>
+  <si>
+    <t>Jag</t>
+  </si>
+  <si>
+    <t>Rigoberto</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Murica</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Bernardino</t>
+  </si>
+  <si>
+    <t>Larret</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Arebalo</t>
+  </si>
+  <si>
+    <t>Landscaping</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Escobar</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Agrueta</t>
+  </si>
+  <si>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>R &amp; A</t>
+  </si>
+  <si>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Getachew</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Cantu</t>
+  </si>
+  <si>
+    <t>Raggio</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Hronek</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Loya</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Parody</t>
+  </si>
+  <si>
+    <t>Quinonez</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Fontenot</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Picton</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Katia</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Vince</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>Romar</t>
+  </si>
+  <si>
+    <t>Schmitz</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Hauling</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>Sorto</t>
+  </si>
+  <si>
+    <t>Dionicio</t>
+  </si>
+  <si>
+    <t>Sheridan</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>Hamrick</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Dugas</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>DAM</t>
+  </si>
+  <si>
+    <t>Loera</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Contractors</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Edmund</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Hugh</t>
+  </si>
+  <si>
+    <t>Garibay</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>Castanon</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>Gilco</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>Eliud</t>
+  </si>
+  <si>
+    <t>Hilby</t>
+  </si>
+  <si>
+    <t>Deramus</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>D&amp;D</t>
+  </si>
+  <si>
+    <t>Selectrucks</t>
+  </si>
+  <si>
+    <t>South Texas</t>
+  </si>
+  <si>
+    <t>SJC</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>OKB</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>Argueta</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Ranier</t>
+  </si>
+  <si>
+    <t>Sandhu</t>
+  </si>
+  <si>
+    <t>Brimm</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>McNeal</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Garza</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
+    <t>Hogan</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Benitez</t>
+  </si>
+  <si>
+    <t>Oilfield Service</t>
+  </si>
+  <si>
+    <t>Headway</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Kenworth</t>
+  </si>
+  <si>
+    <t>W900L</t>
+  </si>
+  <si>
+    <t>W900</t>
+  </si>
+  <si>
+    <t>Peterbilt</t>
+  </si>
+  <si>
+    <t>T880</t>
+  </si>
+  <si>
+    <t>T680</t>
+  </si>
+  <si>
+    <t>K370E</t>
+  </si>
+  <si>
+    <t>T370</t>
+  </si>
+  <si>
+    <t>Freightliner</t>
+  </si>
+  <si>
+    <t>eM2</t>
+  </si>
+  <si>
+    <t>T170</t>
+  </si>
+  <si>
+    <t>T270</t>
+  </si>
+  <si>
+    <t>K270E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,19 +1106,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -975,18 +1440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B12A13-349D-4F21-BCF1-3D0C56DD031D}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -996,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,1636 +1484,1656 @@
         <v>2014</v>
       </c>
       <c r="C2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2015</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>327</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D4" s="5">
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2011</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
+        <v>327</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
+        <v>330</v>
+      </c>
+      <c r="D7" s="5">
+        <v>520</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2009</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
+        <v>327</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D10" s="5">
+        <v>367</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
+        <v>335</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>2019</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
+        <v>327</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
+        <v>327</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>2011</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
+        <v>330</v>
+      </c>
+      <c r="D14" s="5">
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2010</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
+        <v>330</v>
+      </c>
+      <c r="D15" s="5">
+        <v>365</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2016</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
+        <v>330</v>
+      </c>
+      <c r="D16" s="5">
+        <v>569</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>2011</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D17" s="5">
+        <v>367</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>2019</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
+        <v>330</v>
+      </c>
+      <c r="D18" s="5">
+        <v>520</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>2019</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
+        <v>327</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>2017</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D20" s="5">
+        <v>367</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>2015</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+        <v>327</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>2011</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
+        <v>327</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>2009</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
+        <v>327</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>2019</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
+        <v>327</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>2013</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>2007</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
+        <v>327</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>2011</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>2010</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
+        <v>327</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
+        <v>327</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>2011</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D30" s="5">
+        <v>367</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>2011</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
+        <v>327</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>2015</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
+        <v>335</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>2010</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B34">
         <v>2015</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D34" s="5">
+        <v>367</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>2014</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
+        <v>330</v>
+      </c>
+      <c r="D35" s="5">
+        <v>579</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>2016</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>43</v>
+        <v>327</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>2012</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B38">
         <v>2018</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>51</v>
+        <v>330</v>
+      </c>
+      <c r="D38" s="5">
+        <v>569</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B39">
         <v>2014</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>2019</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
+        <v>327</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <v>2013</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
+        <v>330</v>
+      </c>
+      <c r="D41" s="5">
+        <v>520</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>2009</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
+        <v>327</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B43">
         <v>2011</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D43" s="5">
+        <v>367</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B44">
         <v>2019</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>51</v>
+        <v>330</v>
+      </c>
+      <c r="D44" s="5">
+        <v>569</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B45">
         <v>2009</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B46">
         <v>2014</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B47">
         <v>2015</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
+        <v>335</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B48">
         <v>2011</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
+        <v>330</v>
+      </c>
+      <c r="D48" s="5">
+        <v>389</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B49">
         <v>2020</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" t="s">
-        <v>28</v>
+        <v>327</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2012</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
+        <v>327</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2015</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2007</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>113</v>
+        <v>9</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>2009</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>2016</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>2016</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>51</v>
+        <v>330</v>
+      </c>
+      <c r="D55" s="5">
+        <v>569</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B56">
         <v>2014</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
+        <v>327</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B57">
         <v>2011</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>57</v>
+        <v>327</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B58">
         <v>2019</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>39</v>
+        <v>327</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B59">
         <v>2017</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B60">
         <v>2016</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>51</v>
+        <v>330</v>
+      </c>
+      <c r="D60" s="5">
+        <v>569</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B61">
         <v>2012</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D61" s="5">
+        <v>367</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B62">
         <v>2019</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
+        <v>327</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B63">
         <v>2012</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>43</v>
+        <v>327</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B64">
         <v>2011</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
+        <v>330</v>
+      </c>
+      <c r="D64" s="5">
+        <v>367</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B65">
         <v>2018</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
+        <v>327</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B66">
         <v>2019</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
+        <v>330</v>
+      </c>
+      <c r="D66" s="5">
+        <v>520</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B67">
         <v>2019</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
+        <v>330</v>
+      </c>
+      <c r="D67" s="5">
+        <v>520</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B68">
         <v>2011</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
+        <v>327</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B69">
         <v>2020</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3</v>
+        <v>327</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B70">
         <v>2009</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
+        <v>327</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B71">
         <v>2014</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B72">
         <v>2013</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>23</v>
+        <v>330</v>
+      </c>
+      <c r="D72" s="5">
+        <v>520</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B73">
         <v>2010</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>57</v>
+        <v>327</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B74">
         <v>2012</v>
       </c>
       <c r="C74" t="s">
+        <v>327</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
         <v>14</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B75">
         <v>2012</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
-        <v>51</v>
+        <v>330</v>
+      </c>
+      <c r="D75" s="5">
+        <v>569</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B76">
         <v>2015</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E76" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B77">
         <v>2017</v>
       </c>
       <c r="C77" t="s">
+        <v>330</v>
+      </c>
+      <c r="D77" s="5">
+        <v>367</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
         <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B78">
         <v>2017</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>3</v>
+        <v>327</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B79">
         <v>2019</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>39</v>
+        <v>327</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="E79" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B80">
         <v>2015</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
+        <v>327</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B81">
         <v>2011</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
+        <v>327</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B82">
         <v>2017</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E82" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F82" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B83">
         <v>2016</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>51</v>
+        <v>330</v>
+      </c>
+      <c r="D83" s="5">
+        <v>569</v>
       </c>
       <c r="E83" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84">
+        <v>2013</v>
+      </c>
+      <c r="C84" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2660,1448 +3145,3199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FFC43C-6272-47AE-82EF-CB454104C047}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C60">
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C62">
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C65">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C72">
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C73">
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C75">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C78">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C79">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C81">
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C82">
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C83">
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C84">
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E84" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3261E927-8D62-4D8F-A2E4-23A24C7951D1}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2595.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2434.0100000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2934.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="3">
+        <v>270.52999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="3">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="3">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20620.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1190.1199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="3">
+        <v>210.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7750.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16754.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="3">
+        <v>13210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="3">
+        <v>30712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13518.12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10592.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="3">
+        <v>218.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="3">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="3">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>296</v>
+      </c>
+      <c r="C79" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="3">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="3">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>305</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13920</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="3">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" t="s">
+        <v>309</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="3">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" t="s">
+        <v>319</v>
+      </c>
+      <c r="D97" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>320</v>
+      </c>
+      <c r="C98" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" t="s">
+        <v>322</v>
+      </c>
+      <c r="D99" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="3">
+        <v>8500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C3CD3B-A361-40DB-8374-0C3FAAEAF244}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>